--- a/summary_stat_folder/Figure 4CDEF PFU data.xlsx
+++ b/summary_stat_folder/Figure 4CDEF PFU data.xlsx
@@ -20,13 +20,13 @@
     <t xml:space="preserve">minutes</t>
   </si>
   <si>
-    <t xml:space="preserve">logged_mean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">logged_sd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">replicates</t>
+    <t xml:space="preserve">sd log10 cas3/gapA ratio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean log10 cas3/gapA ratio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n</t>
   </si>
   <si>
     <t xml:space="preserve">α15.2</t>
@@ -392,84 +392,84 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>9.39794000867204</v>
+        <v>0.0855699872200405</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.190835096524283</v>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C3" t="n">
-        <v>9.25527250510331</v>
+        <v>0.372258295505798</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.878060865572723</v>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C4" t="n">
-        <v>9.36172783601759</v>
+        <v>0.381402668197424</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1.5478036469452</v>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>9.32221929473392</v>
+        <v>0.0773842607499961</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>0.191166591886716</v>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C6" t="n">
-        <v>8.2898917983084</v>
+        <v>1.38032687535014</v>
       </c>
       <c r="D6" t="n">
-        <v>0.409968912788472</v>
+        <v>1.80923257560708</v>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -477,16 +477,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="C7" t="n">
-        <v>6.48563792436905</v>
+        <v>0.389084056008771</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0999348023217327</v>
+        <v>1.49260992397535</v>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -497,81 +497,81 @@
         <v>5</v>
       </c>
       <c r="C8" t="n">
-        <v>9.08804562952784</v>
+        <v>0.0166862277138728</v>
       </c>
       <c r="D8" t="n">
-        <v>0.124515323385949</v>
+        <v>0.178920610897078</v>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C9" t="n">
-        <v>9.08804562952784</v>
+        <v>0.248178000509146</v>
       </c>
       <c r="D9" t="n">
-        <v>0.124515323385949</v>
+        <v>0.626128902307533</v>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C10" t="n">
-        <v>7.53740822032259</v>
+        <v>0.490297055221236</v>
       </c>
       <c r="D10" t="n">
-        <v>0.149969508121043</v>
+        <v>3.10016104803487</v>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>6.03959062302381</v>
+        <v>0.0149318666345928</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0559895960230762</v>
+        <v>0.0909223108225965</v>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B12" t="n">
         <v>15</v>
       </c>
       <c r="C12" t="n">
-        <v>8.80362025191587</v>
+        <v>0.0843655926173616</v>
       </c>
       <c r="D12" t="n">
-        <v>0.199209545124042</v>
+        <v>0.298269280049384</v>
       </c>
       <c r="E12" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -579,84 +579,16 @@
         <v>8</v>
       </c>
       <c r="B13" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C13" t="n">
-        <v>8.9073900728729</v>
+        <v>0.545897142407056</v>
       </c>
       <c r="D13" t="n">
-        <v>0.105897952273931</v>
+        <v>2.18403319359579</v>
       </c>
       <c r="E13" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" t="n">
-        <v>30</v>
-      </c>
-      <c r="C14" t="n">
-        <v>7.10205999132796</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.144334623911685</v>
-      </c>
-      <c r="E14" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" t="n">
-        <v>30</v>
-      </c>
-      <c r="C15" t="n">
-        <v>6.32172633824309</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.396451654182215</v>
-      </c>
-      <c r="E15" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" t="n">
-        <v>30</v>
-      </c>
-      <c r="C16" t="n">
-        <v>7.69333864198042</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.326599390963182</v>
-      </c>
-      <c r="E16" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" t="n">
-        <v>30</v>
-      </c>
-      <c r="C17" t="n">
-        <v>8.22969624387962</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.0361702954973405</v>
-      </c>
-      <c r="E17" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
